--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0376197e0be6b433/Desktop/ESSPL/AMS/ESSPL_SqlTraining_AMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD0B36F-0B72-4201-A26C-F29B5FC66372}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FB059D-423A-4581-B46B-2EC6FA1BAE69}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Table Design" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>Day 2</t>
   </si>
@@ -113,60 +113,80 @@
     <t>Default Current Date</t>
   </si>
   <si>
-    <t>Create a schema with following Requirement (Refer Sheet 3)
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>IsSaving</t>
+  </si>
+  <si>
+    <t>UsrerAccountMapping</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Varchar(250)</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AddressID</t>
+  </si>
+  <si>
+    <t>NVarchar(max)</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>AccountTransaction</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>IsDebit</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Table design, identity and constraints,Intro to Stored proc</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Schema Design &amp; Stored Proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creates a stored procedure to insert into User table, get the current UserId and use that to insert into other 4 columns
+CreatedBy shpuld have a default value
+All insert query should accept data from input parameters </t>
+  </si>
+  <si>
+    <t>Create a schema with following Requirement (Refer Sheet - "Table Design")
 Adhere to coding standard and best practices</t>
-  </si>
-  <si>
-    <t>AccountID</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>IsSaving</t>
-  </si>
-  <si>
-    <t>UsrerAccountMapping</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Varchar(250)</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>AddressID</t>
-  </si>
-  <si>
-    <t>NVarchar(max)</t>
-  </si>
-  <si>
-    <t>Foreign Key</t>
-  </si>
-  <si>
-    <t>Nullable</t>
-  </si>
-  <si>
-    <t>AccountTransaction</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>IsDebit</t>
-  </si>
-  <si>
-    <t>Bit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +216,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +235,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,17 +278,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,6 +311,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -575,6 +626,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -582,29 +644,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0616DC06-7B85-46E5-9902-5DEF28A091D7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
+      <c r="B2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BDE25E-3333-48A6-A7BB-0F35ED99ABD0}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
@@ -631,480 +713,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="D38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0376197e0be6b433/Desktop/ESSPL/AMS/ESSPL_SqlTraining_AMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12FB059D-423A-4581-B46B-2EC6FA1BAE69}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A9B135-EBCE-4CF6-88BE-5A1668B0F63D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>Day 2</t>
   </si>
@@ -180,6 +180,22 @@
   <si>
     <t>Create a schema with following Requirement (Refer Sheet - "Table Design")
 Adhere to coding standard and best practices</t>
+  </si>
+  <si>
+    <t>Find Users who does not have account with join/subquery,
+Find User, Account detail for User who has avrerage salary of more than 10000</t>
+  </si>
+  <si>
+    <t>Join, Subquery, Fiter and Ordering</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>Join, Subquery, Fiter and Ordering, Aggregate function</t>
   </si>
 </sst>
 </file>
@@ -580,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -627,7 +643,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -635,6 +651,17 @@
       </c>
       <c r="C4" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -644,15 +671,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0616DC06-7B85-46E5-9902-5DEF28A091D7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,6 +714,17 @@
       </c>
       <c r="C3" s="11" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0376197e0be6b433/Desktop/ESSPL/AMS/ESSPL_SqlTraining_AMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A9B135-EBCE-4CF6-88BE-5A1668B0F63D}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC933FDF-8852-4E7D-B065-74030672036F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>Day 2</t>
   </si>
@@ -196,6 +196,33 @@
   </si>
   <si>
     <t>Join, Subquery, Fiter and Ordering, Aggregate function</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>Excerise on strinsplit, CTE, temp table, table variable,. Table  as udt</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>User ddefine function, exercise</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>Merge, Trigger,  Constraints and Index revisit, set operation</t>
   </si>
 </sst>
 </file>
@@ -596,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -662,6 +689,39 @@
       </c>
       <c r="C5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0376197e0be6b433/Desktop/ESSPL/AMS/ESSPL_SqlTraining_AMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC933FDF-8852-4E7D-B065-74030672036F}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC104889D91863E05BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC2D09E-F46D-4B05-86FA-79E846957CB6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>Day 2</t>
   </si>
@@ -223,13 +223,25 @@
   </si>
   <si>
     <t>Merge, Trigger,  Constraints and Index revisit, set operation</t>
+  </si>
+  <si>
+    <t>https://www.placementpreparation.io/programming-exercises/sql/advanced/</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>Trnsaction , rank, Best practices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +275,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,18 +338,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -339,8 +357,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -637,91 +662,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -731,63 +767,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0616DC06-7B85-46E5-9902-5DEF28A091D7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{F83EB6EB-5949-46C6-A8A5-E744378AC77E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -811,480 +855,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
